--- a/scrum/EECS 448- Project 4- Gantt Chart.xlsx
+++ b/scrum/EECS 448- Project 4- Gantt Chart.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Logan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7920"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Gantt Chart</t>
   </si>
@@ -58,48 +66,71 @@
     <t xml:space="preserve">          Add Skip term button</t>
   </si>
   <si>
-    <t xml:space="preserve">          Drag &amp; Drop pieces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Add win screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Turn Timeout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Saving user statistics</t>
-  </si>
-  <si>
     <t xml:space="preserve">          Bug Fixing</t>
+  </si>
+  <si>
+    <t>Server/client protocol building</t>
+  </si>
+  <si>
+    <t>Interfacing with game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Whose turn is it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Win conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Various small updates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Beginning and end screens</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmmm yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="9.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -183,6 +214,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF134F5C"/>
         <bgColor rgb="FF134F5C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -192,6 +241,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -204,6 +254,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -214,6 +265,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -222,6 +274,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -232,6 +285,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -244,69 +298,77 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="9" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="9" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -327,40 +389,40 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1859625" y="997875"/>
-          <a:ext cx="369137" cy="440625"/>
+          <a:off x="4362450" y="809625"/>
+          <a:ext cx="409575" cy="438150"/>
           <a:chOff x="1859625" y="997875"/>
           <a:chExt cx="369137" cy="440625"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="3" name="Shape 3"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1" rot="-5400000">
+          <a:xfrm rot="-5400000" flipH="1">
             <a:off x="1859625" y="997875"/>
             <a:ext cx="209700" cy="252300"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
-              <a:gd fmla="val 50000" name="adj1"/>
+              <a:gd name="adj1" fmla="val 50000"/>
             </a:avLst>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:ln w="9525" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="none"/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="none" w="lg" len="lg"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="4" name="Shape 4"/>
           <xdr:cNvSpPr/>
@@ -376,18 +438,18 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:ln w="9525" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
-            <a:headEnd len="med" w="med" type="none"/>
-            <a:tailEnd len="med" w="med" type="none"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
           </a:ln>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" rIns="91425" tIns="91425">
+          <a:bodyPr lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
             <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -398,9 +460,6 @@
               </a:spcBef>
               <a:buNone/>
             </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
             <a:endParaRPr sz="1400"/>
           </a:p>
         </xdr:txBody>
@@ -423,20 +482,20 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Drawing"/>
+        <xdr:cNvPr id="5" name="Shape 2" title="Drawing"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2362200" y="1238250"/>
-          <a:ext cx="342900" cy="333300"/>
+          <a:off x="4991100" y="1428750"/>
+          <a:ext cx="257175" cy="552450"/>
           <a:chOff x="2362200" y="1238250"/>
           <a:chExt cx="342900" cy="333300"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="Shape 5"/>
+          <xdr:cNvPr id="6" name="Shape 5"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -446,18 +505,18 @@
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
-              <a:gd fmla="val 100000" name="adj1"/>
+              <a:gd name="adj1" fmla="val 100000"/>
             </a:avLst>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:ln w="9525" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="none"/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="none" w="lg" len="lg"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
@@ -479,47 +538,47 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Drawing"/>
+        <xdr:cNvPr id="7" name="Shape 2" title="Drawing"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1859625" y="997875"/>
-          <a:ext cx="369137" cy="440625"/>
+          <a:off x="5505450" y="2171700"/>
+          <a:ext cx="409575" cy="438150"/>
           <a:chOff x="1859625" y="997875"/>
           <a:chExt cx="369137" cy="440625"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="Shape 6"/>
+          <xdr:cNvPr id="8" name="Shape 6"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1" rot="-5400000">
+          <a:xfrm rot="-5400000" flipH="1">
             <a:off x="1859625" y="997875"/>
             <a:ext cx="209700" cy="252300"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
-              <a:gd fmla="val 50000" name="adj1"/>
+              <a:gd name="adj1" fmla="val 50000"/>
             </a:avLst>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:ln w="9525" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="none"/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="none" w="lg" len="lg"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Shape 7"/>
+          <xdr:cNvPr id="9" name="Shape 7"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -533,18 +592,18 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:ln w="9525" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
-            <a:headEnd len="med" w="med" type="none"/>
-            <a:tailEnd len="med" w="med" type="none"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
           </a:ln>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" rIns="91425" tIns="91425">
+          <a:bodyPr lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
             <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -555,9 +614,6 @@
               </a:spcBef>
               <a:buNone/>
             </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
             <a:endParaRPr sz="1400"/>
           </a:p>
         </xdr:txBody>
@@ -567,60 +623,60 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Drawing"/>
+        <xdr:cNvPr id="10" name="Shape 2" title="Drawing"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1859625" y="997875"/>
-          <a:ext cx="369137" cy="440625"/>
+          <a:off x="11896725" y="3457575"/>
+          <a:ext cx="285750" cy="314325"/>
           <a:chOff x="1859625" y="997875"/>
           <a:chExt cx="369137" cy="440625"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="8" name="Shape 8"/>
+          <xdr:cNvPr id="11" name="Shape 8"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1" rot="-5400000">
+          <a:xfrm rot="-5400000" flipH="1">
             <a:off x="1859625" y="997875"/>
             <a:ext cx="209700" cy="252300"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
-              <a:gd fmla="val 50000" name="adj1"/>
+              <a:gd name="adj1" fmla="val 50000"/>
             </a:avLst>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:ln w="9525" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="none"/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="none" w="lg" len="lg"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Shape 9"/>
+          <xdr:cNvPr id="12" name="Shape 9"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -634,18 +690,18 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:ln w="9525" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
-            <a:headEnd len="med" w="med" type="none"/>
-            <a:tailEnd len="med" w="med" type="none"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
           </a:ln>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" rIns="91425" tIns="91425">
+          <a:bodyPr lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
             <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -656,9 +712,6 @@
               </a:spcBef>
               <a:buNone/>
             </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
             <a:endParaRPr sz="1400"/>
           </a:p>
         </xdr:txBody>
@@ -668,60 +721,60 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Drawing"/>
+        <xdr:cNvPr id="13" name="Shape 2" title="Drawing"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1859625" y="997875"/>
-          <a:ext cx="369137" cy="440625"/>
+          <a:off x="13315950" y="5191125"/>
+          <a:ext cx="257175" cy="285750"/>
           <a:chOff x="1859625" y="997875"/>
           <a:chExt cx="369137" cy="440625"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="10" name="Shape 10"/>
+          <xdr:cNvPr id="14" name="Shape 10"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1" rot="-5400000">
+          <a:xfrm rot="-5400000" flipH="1">
             <a:off x="1859625" y="997875"/>
             <a:ext cx="209700" cy="252300"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
-              <a:gd fmla="val 50000" name="adj1"/>
+              <a:gd name="adj1" fmla="val 50000"/>
             </a:avLst>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:ln w="9525" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="none"/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="none" w="lg" len="lg"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Shape 11"/>
+          <xdr:cNvPr id="15" name="Shape 11"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -735,18 +788,18 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:ln w="9525" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
-            <a:headEnd len="med" w="med" type="none"/>
-            <a:tailEnd len="med" w="med" type="none"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
           </a:ln>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" rIns="91425" tIns="91425">
+          <a:bodyPr lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
             <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -757,9 +810,6 @@
               </a:spcBef>
               <a:buNone/>
             </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
             <a:endParaRPr sz="1400"/>
           </a:p>
         </xdr:txBody>
@@ -770,381 +820,754 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BH27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BG2" sqref="BG2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.29"/>
-    <col customWidth="1" min="2" max="2" width="3.57"/>
-    <col customWidth="1" min="3" max="16" width="3.0"/>
-    <col customWidth="1" min="17" max="25" width="2.0"/>
-    <col customWidth="1" min="26" max="26" width="3.0"/>
-    <col customWidth="1" min="27" max="27" width="2.86"/>
-    <col customWidth="1" min="28" max="57" width="3.0"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="16" width="3" customWidth="1"/>
+    <col min="17" max="25" width="2" customWidth="1"/>
+    <col min="26" max="26" width="3" customWidth="1"/>
+    <col min="27" max="27" width="2.85546875" customWidth="1"/>
+    <col min="28" max="57" width="3" customWidth="1"/>
+    <col min="58" max="58" width="2.85546875" customWidth="1"/>
+    <col min="59" max="59" width="2.7109375" customWidth="1"/>
+    <col min="60" max="60" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>42644.0</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>42675.0</v>
-      </c>
-      <c r="AU1" s="2">
-        <v>42705.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>24.0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>26.0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>27.0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>29.0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>31.0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="T2" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="V2" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="W2" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="X2" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>24.0</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>26.0</v>
-      </c>
-      <c r="AQ2" s="3">
-        <v>27.0</v>
-      </c>
-      <c r="AR2" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>29.0</v>
-      </c>
-      <c r="AT2" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AW2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="AX2" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="AY2" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AZ2" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="BA2" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="BB2" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="BC2" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="BD2" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="BE2" s="3">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B1" s="36">
+        <v>42644</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="36">
+        <v>42675</v>
+      </c>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="36">
+        <v>42705</v>
+      </c>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+    </row>
+    <row r="2" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2">
+        <v>3</v>
+      </c>
+      <c r="T2" s="2">
+        <v>4</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5</v>
+      </c>
+      <c r="V2" s="2">
+        <v>6</v>
+      </c>
+      <c r="W2" s="2">
+        <v>7</v>
+      </c>
+      <c r="X2" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>14</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>15</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>16</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>17</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>18</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>21</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>22</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>23</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>25</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>26</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>27</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>28</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>29</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>4</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>6</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>7</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>8</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>9</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>10</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>11</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>12</v>
+      </c>
+      <c r="BG2" s="38">
+        <v>13</v>
+      </c>
+      <c r="BH2" s="38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="7">
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="7" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="10" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="19"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="18"/>
+    </row>
+    <row r="12" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="22"/>
-    </row>
-    <row r="14">
+      <c r="O12" s="19"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
+    </row>
+    <row r="14" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="23" t="s">
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
+    </row>
+    <row r="16" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="30"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="29"/>
+    </row>
+    <row r="17" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="41"/>
+      <c r="AM17" s="41"/>
+      <c r="AN17" s="41"/>
+      <c r="AO17" s="41"/>
+      <c r="AP17" s="41"/>
+      <c r="AQ17" s="41"/>
+    </row>
+    <row r="18" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="42"/>
+      <c r="AU18" s="42"/>
+      <c r="AV18" s="42"/>
+      <c r="AW18" s="42"/>
+      <c r="AX18" s="42"/>
+      <c r="AY18" s="42"/>
+      <c r="AZ18" s="42"/>
+    </row>
+    <row r="20" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+    </row>
+    <row r="22" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+    </row>
+    <row r="23" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+    </row>
+    <row r="24" spans="1:59" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL24" s="33"/>
+      <c r="AM24" s="33"/>
+      <c r="AN24" s="33"/>
+    </row>
+    <row r="25" spans="1:59" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN25" s="33"/>
+      <c r="AO25" s="33"/>
+      <c r="AP25" s="33"/>
+      <c r="AQ25" s="33"/>
+      <c r="AR25" s="33"/>
+    </row>
+    <row r="26" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ26" s="40"/>
+      <c r="AR26" s="40"/>
+      <c r="AS26" s="40"/>
+      <c r="AT26" s="34"/>
+      <c r="AU26" s="34"/>
+      <c r="AV26" s="34"/>
+      <c r="AW26" s="34"/>
+    </row>
+    <row r="27" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
+      <c r="AU27" s="35"/>
+      <c r="AV27" s="35"/>
+      <c r="AW27" s="35"/>
+      <c r="AX27" s="35"/>
+      <c r="AY27" s="35"/>
+      <c r="AZ27" s="35"/>
+      <c r="BA27" s="35"/>
+      <c r="BB27" s="35"/>
+      <c r="BC27" s="35"/>
+      <c r="BD27" s="35"/>
+      <c r="BE27" s="35"/>
+      <c r="BF27" s="35"/>
+      <c r="BG27" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="Q1:AT1"/>
-    <mergeCell ref="AU1:BE1"/>
+    <mergeCell ref="AU1:BH1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="57" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>